--- a/output_4/all_schools.xlsx
+++ b/output_4/all_schools.xlsx
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40483</v>
+        <v>41234</v>
       </c>
     </row>
     <row r="3">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10833</v>
+        <v>10855</v>
       </c>
     </row>
     <row r="6">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51316</v>
+        <v>52089</v>
       </c>
     </row>
     <row r="11">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31400</v>
+        <v>17803</v>
       </c>
     </row>
     <row r="29">
@@ -1114,9 +1114,7 @@
           <t>Undergraduate_FTE</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2907</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1124,9 +1122,7 @@
           <t>Graduate_FTE</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>839</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1142,9 +1138,7 @@
           <t>Total_Full_Time_Equivalent_Students</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>3746</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1152,9 +1146,7 @@
           <t>Undergraduate_Applications_Rcvd</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>5789</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1178,9 +1170,7 @@
           <t>Undergraduate_Acceptances</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>4379</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1204,9 +1194,7 @@
           <t>Undergraduate_Matriculants</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>608</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1238,9 +1226,7 @@
           <t>Full_Time_Employee_Equivalents</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>190</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1248,9 +1234,7 @@
           <t>Tuition</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>37840</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1941,9 +1925,7 @@
           <t>Total_Headcount_Full_Time</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>14417</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1983,7 +1965,9 @@
           <t>Total_Full_Time_Equivalent_Students</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>14417</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2135,7 +2119,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2778</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="3">
@@ -2161,7 +2145,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6">
@@ -2344,9 +2328,7 @@
           <t>Retention_Rate</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>79</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2438,7 +2420,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31290</v>
+        <v>31935</v>
       </c>
     </row>
     <row r="6">
@@ -2760,7 +2742,9 @@
           <t>Total_Headcount</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>5213</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3471,7 +3455,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15346</v>
+        <v>15306</v>
       </c>
     </row>
     <row r="29">
@@ -5920,7 +5904,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.71</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
